--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.9429303351676</v>
+        <v>168.029695608856</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.4254058451069</v>
+        <v>229.9056424789234</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5876127259115</v>
+        <v>207.9637706353971</v>
       </c>
       <c r="AD2" t="n">
-        <v>128942.9303351676</v>
+        <v>168029.695608856</v>
       </c>
       <c r="AE2" t="n">
-        <v>176425.4058451069</v>
+        <v>229905.6424789234</v>
       </c>
       <c r="AF2" t="n">
         <v>1.950736268364521e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.045833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159587.6127259115</v>
+        <v>207963.7706353971</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.3513714480586</v>
+        <v>134.4712911106706</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.4639530208005</v>
+        <v>183.9895529522107</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.012656451838</v>
+        <v>166.4298482494628</v>
       </c>
       <c r="AD3" t="n">
-        <v>95351.37144805861</v>
+        <v>134471.2911106707</v>
       </c>
       <c r="AE3" t="n">
-        <v>130463.9530208005</v>
+        <v>183989.5529522107</v>
       </c>
       <c r="AF3" t="n">
         <v>2.376879497437606e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>118012.656451838</v>
+        <v>166429.8482494628</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.38186558642752</v>
+        <v>134.0698967680787</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.5056764462233</v>
+        <v>183.440347504408</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.0503978520977</v>
+        <v>165.9330581987835</v>
       </c>
       <c r="AD2" t="n">
-        <v>95381.86558642752</v>
+        <v>134069.8967680787</v>
       </c>
       <c r="AE2" t="n">
-        <v>130505.6764462233</v>
+        <v>183440.347504408</v>
       </c>
       <c r="AF2" t="n">
         <v>2.462504534857825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.974999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>118050.3978520977</v>
+        <v>165933.0581987835</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.82971737690518</v>
+        <v>133.5177485585563</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.7502029068953</v>
+        <v>182.68487396508</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.3670256470492</v>
+        <v>165.249685993735</v>
       </c>
       <c r="AD3" t="n">
-        <v>94829.71737690517</v>
+        <v>133517.7485585563</v>
       </c>
       <c r="AE3" t="n">
-        <v>129750.2029068953</v>
+        <v>182684.87396508</v>
       </c>
       <c r="AF3" t="n">
         <v>2.490984945824029e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>117367.0256470492</v>
+        <v>165249.685993735</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.7205905111092</v>
+        <v>167.1093630810911</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.4894348057753</v>
+        <v>228.6464029122305</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.550092255948</v>
+        <v>206.8247111255951</v>
       </c>
       <c r="AD2" t="n">
-        <v>129720.5905111092</v>
+        <v>167109.3630810911</v>
       </c>
       <c r="AE2" t="n">
-        <v>177489.4348057753</v>
+        <v>228646.4029122305</v>
       </c>
       <c r="AF2" t="n">
         <v>2.615494518492531e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>160550.092255948</v>
+        <v>206824.7111255951</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.3709588297521</v>
+        <v>153.7154786345843</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.5414386263105</v>
+        <v>210.3202993160507</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.6511679925469</v>
+        <v>190.2476251357809</v>
       </c>
       <c r="AD2" t="n">
-        <v>106370.9588297521</v>
+        <v>153715.4786345843</v>
       </c>
       <c r="AE2" t="n">
-        <v>145541.4386263105</v>
+        <v>210320.2993160507</v>
       </c>
       <c r="AF2" t="n">
         <v>2.617841433790876e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.929166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>131651.1679925469</v>
+        <v>190247.6251357809</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.3198574446954</v>
+        <v>201.7931511729769</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.20128413227</v>
+        <v>276.1022919202635</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.09435455901</v>
+        <v>249.7514766914751</v>
       </c>
       <c r="AD2" t="n">
-        <v>146319.8574446954</v>
+        <v>201793.1511729769</v>
       </c>
       <c r="AE2" t="n">
-        <v>200201.28413227</v>
+        <v>276102.2919202635</v>
       </c>
       <c r="AF2" t="n">
         <v>2.532540688455095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181094.35455901</v>
+        <v>249751.4766914751</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.801705588021</v>
+        <v>135.8953372955773</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.1308053441795</v>
+        <v>185.9379957668826</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.184286378044</v>
+        <v>168.1923344165597</v>
       </c>
       <c r="AD2" t="n">
-        <v>106801.705588021</v>
+        <v>135895.3372955773</v>
       </c>
       <c r="AE2" t="n">
-        <v>146130.8053441795</v>
+        <v>185937.9957668826</v>
       </c>
       <c r="AF2" t="n">
         <v>2.374982970807593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.054166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132184.2863780441</v>
+        <v>168192.3344165597</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.98966526168702</v>
+        <v>133.7912146382128</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.9690506592564</v>
+        <v>183.0590423197378</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.5649868770797</v>
+        <v>165.5881442457729</v>
       </c>
       <c r="AD3" t="n">
-        <v>94989.66526168703</v>
+        <v>133791.2146382128</v>
       </c>
       <c r="AE3" t="n">
-        <v>129969.0506592564</v>
+        <v>183059.0423197378</v>
       </c>
       <c r="AF3" t="n">
         <v>2.45900368963462e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.816666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>117564.9868770797</v>
+        <v>165588.1442457729</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.3771680695513</v>
+        <v>227.4469584406171</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.8540460965923</v>
+        <v>311.2029627899319</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.3444669604345</v>
+        <v>281.5021887974545</v>
       </c>
       <c r="AD2" t="n">
-        <v>172377.1680695513</v>
+        <v>227446.9584406171</v>
       </c>
       <c r="AE2" t="n">
-        <v>235854.0460965923</v>
+        <v>311202.9627899319</v>
       </c>
       <c r="AF2" t="n">
         <v>2.430837852550776e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>213344.4669604345</v>
+        <v>281502.1887974545</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.966564228625</v>
+        <v>143.2188541365115</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.6198839755324</v>
+        <v>195.9583545994043</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9130038207196</v>
+        <v>177.2563642657706</v>
       </c>
       <c r="AD2" t="n">
-        <v>104966.564228625</v>
+        <v>143218.8541365115</v>
       </c>
       <c r="AE2" t="n">
-        <v>143619.8839755324</v>
+        <v>195958.3545994043</v>
       </c>
       <c r="AF2" t="n">
         <v>2.559452817784747e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.295833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>129913.0038207195</v>
+        <v>177256.3642657706</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.8106991403708</v>
+        <v>133.5428761022259</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.4066224855006</v>
+        <v>182.7192545788778</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.720095707982</v>
+        <v>165.2807853700054</v>
       </c>
       <c r="AD3" t="n">
-        <v>104810.6991403708</v>
+        <v>133542.8761022259</v>
       </c>
       <c r="AE3" t="n">
-        <v>143406.6224855006</v>
+        <v>182719.2545788778</v>
       </c>
       <c r="AF3" t="n">
         <v>2.572449741512313e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.258333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>129720.095707982</v>
+        <v>165280.7853700054</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.8793899191943</v>
+        <v>133.7995068305601</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.5006082395103</v>
+        <v>183.0703880631332</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.8051115935388</v>
+        <v>165.5984071673425</v>
       </c>
       <c r="AD2" t="n">
-        <v>104879.3899191943</v>
+        <v>133799.5068305602</v>
       </c>
       <c r="AE2" t="n">
-        <v>143500.6082395103</v>
+        <v>183070.3880631332</v>
       </c>
       <c r="AF2" t="n">
         <v>2.501647071535766e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.045833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>129805.1115935388</v>
+        <v>165598.4071673425</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.6567223729037</v>
+        <v>133.5768392842695</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.1959446792767</v>
+        <v>182.7657245028997</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.5295246958959</v>
+        <v>165.3228202696996</v>
       </c>
       <c r="AD3" t="n">
-        <v>104656.7223729037</v>
+        <v>133576.8392842695</v>
       </c>
       <c r="AE3" t="n">
-        <v>143195.9446792768</v>
+        <v>182765.7245028997</v>
       </c>
       <c r="AF3" t="n">
         <v>2.516326311488129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.004166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>129529.5246958959</v>
+        <v>165322.8202696996</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.1998836883466</v>
+        <v>152.2512235954308</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.885074888737</v>
+        <v>208.3168409731087</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.1030607239662</v>
+        <v>188.4353740452173</v>
       </c>
       <c r="AD2" t="n">
-        <v>113199.8836883466</v>
+        <v>152251.2235954308</v>
       </c>
       <c r="AE2" t="n">
-        <v>154885.074888737</v>
+        <v>208316.8409731087</v>
       </c>
       <c r="AF2" t="n">
         <v>2.119575843707228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.558333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>140103.0607239662</v>
+        <v>188435.3740452173</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.33300930895149</v>
+        <v>134.3501837972549</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.4388291319938</v>
+        <v>183.8238485831178</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.9899303517174</v>
+        <v>166.2799584727885</v>
       </c>
       <c r="AD3" t="n">
-        <v>95333.00930895148</v>
+        <v>134350.1837972549</v>
       </c>
       <c r="AE3" t="n">
-        <v>130438.8291319938</v>
+        <v>183823.8485831177</v>
       </c>
       <c r="AF3" t="n">
         <v>2.397919910995958e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.683333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>117989.9303517174</v>
+        <v>166279.9584727885</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.858796899406</v>
+        <v>143.9377648562297</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.8406760782216</v>
+        <v>196.9419999622248</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.017285238521</v>
+        <v>178.1461318957188</v>
       </c>
       <c r="AD2" t="n">
-        <v>105858.796899406</v>
+        <v>143937.7648562297</v>
       </c>
       <c r="AE2" t="n">
-        <v>144840.6760782216</v>
+        <v>196941.9999622248</v>
       </c>
       <c r="AF2" t="n">
         <v>2.596868697483706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.691666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>131017.285238521</v>
+        <v>178146.1318957188</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.751435133965</v>
+        <v>143.8304030907887</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.6937789742785</v>
+        <v>196.7951028582817</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.8844077880068</v>
+        <v>178.0132544452046</v>
       </c>
       <c r="AD3" t="n">
-        <v>105751.435133965</v>
+        <v>143830.4030907887</v>
       </c>
       <c r="AE3" t="n">
-        <v>144693.7789742785</v>
+        <v>196795.1028582817</v>
       </c>
       <c r="AF3" t="n">
         <v>2.608662186251631e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.658333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>130884.4077880068</v>
+        <v>178013.2544452046</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.2585012136855</v>
+        <v>165.2290026381381</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.8064985573568</v>
+        <v>226.0736107985356</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.3639134319344</v>
+        <v>204.4974626802939</v>
       </c>
       <c r="AD2" t="n">
-        <v>118258.5012136855</v>
+        <v>165229.0026381381</v>
       </c>
       <c r="AE2" t="n">
-        <v>161806.4985573568</v>
+        <v>226073.6107985355</v>
       </c>
       <c r="AF2" t="n">
         <v>2.628307933470549e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.641666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>146363.9134319344</v>
+        <v>204497.4626802939</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.548578381484</v>
+        <v>179.0784154697449</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.3588125720398</v>
+        <v>245.0229884277028</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.0501820389073</v>
+        <v>221.638338304158</v>
       </c>
       <c r="AD2" t="n">
-        <v>132548.578381484</v>
+        <v>179078.4154697449</v>
       </c>
       <c r="AE2" t="n">
-        <v>181358.8125720398</v>
+        <v>245022.9884277028</v>
       </c>
       <c r="AF2" t="n">
         <v>2.587996636421558e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.858333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164050.1820389073</v>
+        <v>221638.338304158</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.1926085729715</v>
+        <v>277.1001667717047</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.385335391524</v>
+        <v>379.1406729736226</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.72119110162</v>
+        <v>342.9560192722959</v>
       </c>
       <c r="AD2" t="n">
-        <v>204192.6085729715</v>
+        <v>277100.1667717047</v>
       </c>
       <c r="AE2" t="n">
-        <v>279385.335391524</v>
+        <v>379140.6729736226</v>
       </c>
       <c r="AF2" t="n">
         <v>2.256026049011206e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>252721.19110162</v>
+        <v>342956.0192722959</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1486232012171</v>
+        <v>133.9767743889447</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.8689850937077</v>
+        <v>183.3129333570075</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.1383310777919</v>
+        <v>165.817804278784</v>
       </c>
       <c r="AD2" t="n">
-        <v>105148.6232012171</v>
+        <v>133976.7743889447</v>
       </c>
       <c r="AE2" t="n">
-        <v>143868.9850937077</v>
+        <v>183312.9333570075</v>
       </c>
       <c r="AF2" t="n">
         <v>2.519830486552904e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.191666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130138.3310777919</v>
+        <v>165817.804278784</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9654528930748</v>
+        <v>133.7936040808024</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.6183633972039</v>
+        <v>183.0623116605036</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.9116283642526</v>
+        <v>165.5911015652447</v>
       </c>
       <c r="AD3" t="n">
-        <v>104965.4528930748</v>
+        <v>133793.6040808024</v>
       </c>
       <c r="AE3" t="n">
-        <v>143618.3633972039</v>
+        <v>183062.3116605036</v>
       </c>
       <c r="AF3" t="n">
         <v>2.533575570079008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.154166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>129911.6283642526</v>
+        <v>165591.1015652447</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8684538962178</v>
+        <v>138.0442858861736</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.9586215579533</v>
+        <v>188.8782820334559</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7422197812412</v>
+        <v>170.8520038885699</v>
       </c>
       <c r="AD2" t="n">
-        <v>108868.4538962178</v>
+        <v>138044.2858861736</v>
       </c>
       <c r="AE2" t="n">
-        <v>148958.6215579533</v>
+        <v>188878.2820334559</v>
       </c>
       <c r="AF2" t="n">
         <v>2.27675317280002e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.191666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134742.2197812412</v>
+        <v>170852.0038885699</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.20478594277957</v>
+        <v>134.1159356958379</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2633882655818</v>
+        <v>183.5033399964623</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8312333153629</v>
+        <v>165.9900387758067</v>
       </c>
       <c r="AD3" t="n">
-        <v>95204.78594277956</v>
+        <v>134115.9356958379</v>
       </c>
       <c r="AE3" t="n">
-        <v>130263.3882655818</v>
+        <v>183503.3399964623</v>
       </c>
       <c r="AF3" t="n">
         <v>2.426618690570429e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>117831.2333153629</v>
+        <v>165990.0387758067</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.4483900125285</v>
+        <v>387.6391023023711</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.667812659993</v>
+        <v>530.3849212003404</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.0012705394766</v>
+        <v>479.7657287208913</v>
       </c>
       <c r="AD2" t="n">
-        <v>288448.3900125285</v>
+        <v>387639.1023023711</v>
       </c>
       <c r="AE2" t="n">
-        <v>394667.8126599931</v>
+        <v>530384.9212003404</v>
       </c>
       <c r="AF2" t="n">
         <v>1.94019866245033e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>357001.2705394766</v>
+        <v>479765.7287208913</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.9152246506773</v>
+        <v>154.6203362850305</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.9685683026705</v>
+        <v>211.5583654728928</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.7013926612033</v>
+        <v>191.3675319962511</v>
       </c>
       <c r="AD2" t="n">
-        <v>116915.2246506774</v>
+        <v>154620.3362850305</v>
       </c>
       <c r="AE2" t="n">
-        <v>159968.5683026705</v>
+        <v>211558.3654728928</v>
       </c>
       <c r="AF2" t="n">
         <v>2.627841252456928e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.241666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>144701.3926612033</v>
+        <v>191367.5319962511</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.4006308290386</v>
+        <v>143.5189373990417</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.2137930478849</v>
+        <v>196.3689417579371</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.4502310447635</v>
+        <v>177.6277655621559</v>
       </c>
       <c r="AD2" t="n">
-        <v>105400.6308290387</v>
+        <v>143518.9373990417</v>
       </c>
       <c r="AE2" t="n">
-        <v>144213.7930478849</v>
+        <v>196368.9417579371</v>
       </c>
       <c r="AF2" t="n">
         <v>2.576598249695209e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.483333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>130450.2310447636</v>
+        <v>177627.7655621559</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.2748076984651</v>
+        <v>143.3931142684681</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.0416362897095</v>
+        <v>196.1967849997617</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.2945046859648</v>
+        <v>177.4720392033572</v>
       </c>
       <c r="AD3" t="n">
-        <v>105274.8076984651</v>
+        <v>143393.1142684681</v>
       </c>
       <c r="AE3" t="n">
-        <v>144041.6362897095</v>
+        <v>196196.7849997617</v>
       </c>
       <c r="AF3" t="n">
         <v>2.588818171332136e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>130294.5046859648</v>
+        <v>177472.0392033572</v>
       </c>
     </row>
   </sheetData>
